--- a/docs/Mifinanza.xlsx
+++ b/docs/Mifinanza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barra\Desktop\Nuevo cliente\+57 313 3652342\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barra\Desktop\Nuevo cliente\+57 313 3652342\Mifinanza\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDC8C9C-2C1E-4547-B769-4FE79E3DB048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C19D7-32CB-4366-9607-B09D0DD581E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D9A9A6C5-E7DB-4242-91DA-4BA3F59ED01C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Fase</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Desfase (+/-)</t>
   </si>
   <si>
-    <t>Acumulado</t>
-  </si>
-  <si>
     <t>Estudio del contexto del proyecto</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Definición del problema central</t>
   </si>
   <si>
-    <t>Se identificaron las dificultades que enfrentan los desarrolladores al no planificar ni registrar su progreso.</t>
-  </si>
-  <si>
     <t>Redacción del documento técnico</t>
   </si>
   <si>
@@ -97,15 +91,9 @@
     <t>Creación del entorno de trabajo</t>
   </si>
   <si>
-    <t>Se configuró el entorno de desarrollo, organizando la estructura del proyecto en carpetas y subcarpetas en Visual Studio Code.</t>
-  </si>
-  <si>
     <t>Inicialización del repositorio</t>
   </si>
   <si>
-    <t>Se creó un repositorio local y remoto para el control de versiones y respaldo de los avances.</t>
-  </si>
-  <si>
     <t>Tiempo de interrupción (min)</t>
   </si>
   <si>
@@ -115,7 +103,88 @@
     <t>Interrupción por notificaciones</t>
   </si>
   <si>
-    <t>Breve pausa para reorganizar carpetas</t>
+    <t>Se identificaron las dificultades que enfrentan las personas al no planificar ni registrar sus movimientos financieros de forma organizada.</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Se configuró el entorno de desarrollo en Visual Studio Code, estructurando carpetas y archivos para código, estilos y recursos.</t>
+  </si>
+  <si>
+    <t>Se creó un repositorio local y remoto para el control de versiones y respaldo del proyecto.</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Desarrollo de la interfaz base</t>
+  </si>
+  <si>
+    <t>Se implementó la estructura HTML con formularios, tabla de movimientos y encabezado visual.</t>
+  </si>
+  <si>
+    <t>Aplicación de estilos CSS</t>
+  </si>
+  <si>
+    <t>Se diseñó la apariencia visual del sistema, incluyendo colores, tipografías y diseño adaptable (responsive).</t>
+  </si>
+  <si>
+    <t>Programación de la lógica principal</t>
+  </si>
+  <si>
+    <t>Se desarrolló en JavaScript nativo el registro de movimientos, validación de datos y persistencia mediante localStorage.</t>
+  </si>
+  <si>
+    <t>Cálculo de estadísticas</t>
+  </si>
+  <si>
+    <t>Se añadieron totales de ingresos, egresos, saldo y promedios.</t>
+  </si>
+  <si>
+    <t>Integración del gráfico dinámico</t>
+  </si>
+  <si>
+    <t>Se incorporó un gráfico tipo pastel (canvas 2D) que representa visualmente los porcentajes de ingresos y egresos.</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Verificación funcional</t>
+  </si>
+  <si>
+    <t>Se realizaron pruebas manuales del formulario, validaciones, eliminación de registros, persistencia y actualización del gráfico.</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>Actualización del documento técnico</t>
+  </si>
+  <si>
+    <t>Se documentaron los cambios realizados, el plan de desarrollo personal, el plan de pruebas y las estimaciones PROBE.</t>
+  </si>
+  <si>
+    <t>Acumulado (min)</t>
+  </si>
+  <si>
+    <t>Revisión y ajuste del planteamiento inicial</t>
+  </si>
+  <si>
+    <t>Pausa para reorganizar carpetas del proyecto</t>
+  </si>
+  <si>
+    <t>Ajuste de estructura HTML y estilos base</t>
+  </si>
+  <si>
+    <t>Prueba de visualización en distintos navegadores</t>
+  </si>
+  <si>
+    <t>Error menor al validar datos en JavaScript</t>
+  </si>
+  <si>
+    <t>Pruebas repetidas para validar persistencia</t>
   </si>
 </sst>
 </file>
@@ -159,12 +228,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -185,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57ADCC12-CF74-4A41-9887-5B4D037E7E6A}" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{57ADCC12-CF74-4A41-9887-5B4D037E7E6A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57ADCC12-CF74-4A41-9887-5B4D037E7E6A}" name="Tabla1" displayName="Tabla1" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{57ADCC12-CF74-4A41-9887-5B4D037E7E6A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BABE97ED-11E3-4E89-97B1-61F3A19D6C50}" name="Fase"/>
     <tableColumn id="2" xr3:uid="{BE63D73C-B2FE-494C-A00B-E553A31CCA00}" name="Actividad"/>
@@ -197,18 +269,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88542504-D6BD-4CB3-9151-229D451B2886}" name="Tabla2" displayName="Tabla2" ref="A1:G7" totalsRowShown="0">
-  <autoFilter ref="A1:G7" xr:uid="{88542504-D6BD-4CB3-9151-229D451B2886}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88542504-D6BD-4CB3-9151-229D451B2886}" name="Tabla2" displayName="Tabla2" ref="A1:G14" totalsRowShown="0">
+  <autoFilter ref="A1:G14" xr:uid="{88542504-D6BD-4CB3-9151-229D451B2886}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8D820F02-9BAB-4373-A525-32671B1479D3}" name="Descripción de la actividad"/>
     <tableColumn id="2" xr3:uid="{26E97051-8684-4D32-BED1-B3D7B2ADC6F7}" name="Tiempo planeado (min)"/>
     <tableColumn id="3" xr3:uid="{163DB5C5-7763-4AD4-8CD6-311752F63382}" name="Tiempo real (min)"/>
     <tableColumn id="4" xr3:uid="{9C01289F-2828-4C77-BC0F-34282BDF82B5}" name="Tiempo de interrupción (min)"/>
     <tableColumn id="5" xr3:uid="{CFFAA176-F8C0-44B2-BB98-0D318AC8ABD8}" name="Descripción de la interrupción"/>
-    <tableColumn id="6" xr3:uid="{3CF6A340-BD0B-420F-9DD6-486E3D8DB8B0}" name="Desfase (+/-)">
-      <calculatedColumnFormula>Tabla2[[#This Row],[Tiempo planeado (min)]]-Tabla2[[#This Row],[Tiempo real (min)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{9F79F299-89A0-452E-8025-0FA8B1295CD2}" name="Acumulado"/>
+    <tableColumn id="6" xr3:uid="{3CF6A340-BD0B-420F-9DD6-486E3D8DB8B0}" name="Desfase (+/-)"/>
+    <tableColumn id="7" xr3:uid="{9F79F299-89A0-452E-8025-0FA8B1295CD2}" name="Acumulado (min)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEB476D-900D-49EE-A550-70A3F61CC844}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,69 +606,146 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -611,10 +758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E7FA40-A3EE-4A36-A6D8-65A8CEAF2A4D}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -648,12 +795,12 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -665,19 +812,18 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
-        <f>Tabla2[[#This Row],[Tiempo planeado (min)]]-Tabla2[[#This Row],[Tiempo real (min)]]</f>
         <v>-5</v>
       </c>
       <c r="G2" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>50</v>
@@ -688,9 +834,10 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F3" s="2">
-        <f>Tabla2[[#This Row],[Tiempo planeado (min)]]-Tabla2[[#This Row],[Tiempo real (min)]]</f>
         <v>-10</v>
       </c>
       <c r="G3" s="2">
@@ -699,7 +846,7 @@
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -711,10 +858,9 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f>Tabla2[[#This Row],[Tiempo planeado (min)]]-Tabla2[[#This Row],[Tiempo real (min)]]</f>
         <v>-10</v>
       </c>
       <c r="G4" s="2">
@@ -723,7 +869,7 @@
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>35</v>
@@ -736,7 +882,6 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <f>Tabla2[[#This Row],[Tiempo planeado (min)]]-Tabla2[[#This Row],[Tiempo real (min)]]</f>
         <v>5</v>
       </c>
       <c r="G5" s="2">
@@ -745,7 +890,7 @@
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>25</v>
@@ -757,10 +902,9 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2">
-        <f>Tabla2[[#This Row],[Tiempo planeado (min)]]-Tabla2[[#This Row],[Tiempo real (min)]]</f>
         <v>-5</v>
       </c>
       <c r="G6" s="2">
@@ -769,7 +913,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>15</v>
@@ -782,11 +926,165 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <f>Tabla2[[#This Row],[Tiempo planeado (min)]]-Tabla2[[#This Row],[Tiempo real (min)]]</f>
         <v>-5</v>
       </c>
       <c r="G7" s="2">
         <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>830</v>
       </c>
     </row>
   </sheetData>
